--- a/data/trans_dic/P19C07-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19C07-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P19C07-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19C07-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,72%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,82%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,47%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,85%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,64%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,75%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,83%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,55%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,9%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>3,45; 8,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>6,32; 12,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>3,33; 8,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,21</t>
+          <t>2,93; 11,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>4,88; 10,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>6,2; 11,83</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>5,36; 11,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,98</t>
+          <t>4,21; 13,3</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>4,88; 8,31</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>7,08; 11,21</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>4,87; 8,78</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>4,39; 10,53</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,59%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>2,51; 5,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>2,89; 6,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>2,36; 5,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,68</t>
+          <t>2,94; 8,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>2,42; 6,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>3,74; 8,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>3,6; 7,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>5,42; 11,16</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>2,91; 5,36</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>3,73; 6,67</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>3,37; 6,24</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>4,74; 8,81</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,83%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>0,96; 3,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>1,46; 4,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>2,12; 5,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>2,13; 5,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>1,71; 4,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>2,03; 4,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>1,46; 4,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>2,79; 5,68</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>1,65; 3,56</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>2,15; 4,09</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>2,04; 3,99</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>2,86; 5,05</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,21%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>2,02; 5,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>1,0; 3,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>0,79; 3,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>1,79; 4,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>1,17; 4,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>1,14; 3,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>1,71; 4,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>2,39; 4,67</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>1,89; 4,29</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>1,26; 3,16</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>1,55; 3,6</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>2,48; 4,22</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,04%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>0,39; 3,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>0,29; 3,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>0,55; 3,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>0,65; 2,71</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,61</t>
+          <t>0,92; 4,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>0,52; 2,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>0,81; 3,71</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>1,75; 3,9</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>0,86; 3,29</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>0,53; 2,48</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>0,94; 3,06</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>1,41; 2,82</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,27%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>2,11; 6,07</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>0,45; 2,89</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>0,45; 2,67</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>1,45; 3,76</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>1,63; 4,8</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>0,84; 3,28</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>1,1; 4,11</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>1,5; 3,1</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>2,08; 4,37</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0,92; 2,52</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>0,92; 2,86</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>1,59; 2,93</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,69%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>2,74; 4,21</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>2,72; 4,11</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>2,26; 3,56</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,59; 4,15</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>2,85; 4,2</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>2,98; 4,4</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>2,87; 4,24</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>3,34; 4,76</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>2,94; 3,99</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>2,99; 3,95</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>2,78; 3,78</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>3,19; 4,23</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19C07-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19C07-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>7,75%</t>
+          <t>7,5%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>6,9%</t>
+          <t>7,32%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,93; 11,29</t>
+          <t>3,24; 13,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,21; 13,3</t>
+          <t>4,08; 12,95</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,39; 10,53</t>
+          <t>4,63; 11,32</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>7,79%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>6,59%</t>
+          <t>6,24%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,94; 8,32</t>
+          <t>2,82; 8,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,42; 11,16</t>
+          <t>4,14; 10,29</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,74; 8,81</t>
+          <t>4,35; 8,59</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,13; 5,62</t>
+          <t>2,1; 5,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,79; 5,68</t>
+          <t>2,79; 5,64</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,86; 5,05</t>
+          <t>2,84; 5,0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,27 +1091,27 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>2,26%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2,29%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>2,11%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
           <t>2,97%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>2,29%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>2,11%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>2,97%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>2,7%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,79; 4,49</t>
+          <t>0,8; 3,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,39; 4,67</t>
+          <t>2,26; 4,49</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,48; 4,22</t>
+          <t>1,56; 3,66</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>2,02%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,65; 2,71</t>
+          <t>0,63; 2,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,75; 3,9</t>
+          <t>1,75; 3,88</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,41; 2,82</t>
+          <t>1,39; 2,79</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>1,99%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,11; 6,07</t>
+          <t>2,25; 7,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,45; 2,89</t>
+          <t>0,0; 2,29</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,45; 2,67</t>
+          <t>0,39; 3,99</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,45; 3,76</t>
+          <t>1,32; 4,27</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,63; 4,8</t>
+          <t>1,48; 5,95</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,84; 3,28</t>
+          <t>0,63; 4,28</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,1; 4,11</t>
+          <t>0,97; 4,8</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,5; 3,1</t>
+          <t>0,55; 3,02</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,08; 4,37</t>
+          <t>2,38; 5,97</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,92; 2,52</t>
+          <t>0,52; 2,83</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,92; 2,86</t>
+          <t>0,99; 3,73</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,59; 2,93</t>
+          <t>1,03; 3,02</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,47%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>3,47%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>2,29%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>0,63; 5,81</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0,57; 5,53</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,73</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0,91; 4,2</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0,54; 5,56</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0,38; 3,36</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0,57; 4,69</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1,46; 3,7</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0,93; 4,31</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0,84; 3,32</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>0,35; 3,2</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1,49; 3,32</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3,44%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>3,34%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2,84%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>3,21%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>3,47%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>3,59%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>3,59%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>3,87%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>3,45%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>3,47%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>3,23%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>3,55%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>2,74; 4,21</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>2,72; 4,11</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>2,26; 3,56</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>2,59; 4,15</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>2,35; 4,16</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>2,85; 4,2</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>2,98; 4,4</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>2,87; 4,24</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>3,34; 4,76</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>3,03; 4,57</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>2,94; 3,99</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>2,99; 3,95</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>2,78; 3,78</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>3,19; 4,23</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>2,92; 4,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P19C07-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19C07-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,45; 8,22</t>
+          <t>3,72; 8,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,32; 12,32</t>
+          <t>6,34; 12,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,33; 8,19</t>
+          <t>3,31; 8,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,24; 13,9</t>
+          <t>3,38; 12,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,88; 10,02</t>
+          <t>5,05; 9,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,2; 11,83</t>
+          <t>6,14; 12,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,36; 11,02</t>
+          <t>5,27; 10,76</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,08; 12,95</t>
+          <t>4,32; 13,82</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,88; 8,31</t>
+          <t>4,91; 8,25</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,08; 11,21</t>
+          <t>6,96; 11,15</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,87; 8,78</t>
+          <t>4,79; 8,42</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,63; 11,32</t>
+          <t>4,48; 10,91</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,51; 5,9</t>
+          <t>2,56; 5,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,89; 6,54</t>
+          <t>2,92; 6,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,36; 5,59</t>
+          <t>2,29; 5,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,82; 8,27</t>
+          <t>3,0; 8,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,42; 6,26</t>
+          <t>2,46; 6,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,74; 8,21</t>
+          <t>3,68; 8,11</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,6; 7,73</t>
+          <t>3,73; 8,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,14; 10,29</t>
+          <t>3,91; 10,35</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,91; 5,36</t>
+          <t>2,89; 5,31</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,73; 6,67</t>
+          <t>3,72; 6,64</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,37; 6,24</t>
+          <t>3,39; 6,02</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,35; 8,59</t>
+          <t>4,26; 8,46</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,96; 3,75</t>
+          <t>1,13; 3,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,46; 4,32</t>
+          <t>1,51; 4,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,12; 5,39</t>
+          <t>2,07; 5,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,1; 5,53</t>
+          <t>2,18; 5,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,71; 4,63</t>
+          <t>1,67; 4,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,03; 4,6</t>
+          <t>2,09; 4,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,46; 4,1</t>
+          <t>1,54; 4,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,79; 5,64</t>
+          <t>2,86; 5,85</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,65; 3,56</t>
+          <t>1,62; 3,52</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,15; 4,09</t>
+          <t>2,21; 4,08</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,04; 3,99</t>
+          <t>2,04; 3,98</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,84; 5,0</t>
+          <t>2,76; 5,04</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,02; 5,89</t>
+          <t>2,02; 6,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,0; 3,98</t>
+          <t>0,93; 3,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,79; 3,38</t>
+          <t>0,77; 3,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,8; 3,81</t>
+          <t>0,86; 3,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,17; 4,0</t>
+          <t>1,11; 3,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,14; 3,76</t>
+          <t>0,98; 3,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,71; 4,86</t>
+          <t>1,75; 5,05</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,26; 4,49</t>
+          <t>2,31; 4,63</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,89; 4,29</t>
+          <t>1,92; 4,21</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,26; 3,16</t>
+          <t>1,17; 3,28</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,55; 3,6</t>
+          <t>1,52; 3,47</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,56; 3,66</t>
+          <t>1,56; 3,7</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,39; 3,56</t>
+          <t>0,33; 3,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,29; 3,52</t>
+          <t>0,3; 4,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,55; 3,64</t>
+          <t>0,58; 3,69</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,63; 2,6</t>
+          <t>0,63; 2,5</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,92; 4,22</t>
+          <t>0,93; 4,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,98</t>
+          <t>0,51; 2,86</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,81; 3,71</t>
+          <t>0,83; 4,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,75; 3,88</t>
+          <t>1,78; 4,09</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,86; 3,29</t>
+          <t>0,83; 2,98</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,53; 2,48</t>
+          <t>0,56; 2,48</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,94; 3,06</t>
+          <t>1,03; 3,02</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,39; 2,79</t>
+          <t>1,44; 2,81</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,25; 7,9</t>
+          <t>2,22; 7,73</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,29</t>
+          <t>0,0; 2,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,39; 3,99</t>
+          <t>0,44; 3,96</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,32; 4,27</t>
+          <t>1,34; 4,54</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,48; 5,95</t>
+          <t>1,48; 6,1</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,63; 4,28</t>
+          <t>0,63; 4,08</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,97; 4,8</t>
+          <t>1,01; 5,42</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,55; 3,02</t>
+          <t>0,42; 2,93</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,38; 5,97</t>
+          <t>2,39; 5,71</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,83</t>
+          <t>0,5; 2,85</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,99; 3,73</t>
+          <t>0,96; 3,71</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,03; 3,02</t>
+          <t>0,94; 3,07</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,63; 5,81</t>
+          <t>0,63; 5,73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,57; 5,53</t>
+          <t>0,57; 5,59</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,73</t>
+          <t>0,0; 2,67</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,91; 4,2</t>
+          <t>0,78; 3,98</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,54; 5,56</t>
+          <t>0,58; 5,04</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,38; 3,36</t>
+          <t>0,38; 3,53</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,57; 4,69</t>
+          <t>0,56; 5,12</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,46; 3,7</t>
+          <t>1,5; 3,81</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,93; 4,31</t>
+          <t>0,91; 4,48</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0,84; 3,32</t>
+          <t>0,73; 3,39</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,2</t>
+          <t>0,36; 3,34</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>1,49; 3,32</t>
+          <t>1,46; 3,44</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,74; 4,21</t>
+          <t>2,7; 4,23</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,72; 4,11</t>
+          <t>2,68; 4,04</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,26; 3,56</t>
+          <t>2,24; 3,64</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,35; 4,16</t>
+          <t>2,39; 4,2</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,85; 4,2</t>
+          <t>2,83; 4,27</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,98; 4,4</t>
+          <t>2,95; 4,36</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,87; 4,24</t>
+          <t>2,93; 4,32</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>3,03; 4,57</t>
+          <t>3,13; 4,7</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>2,94; 3,99</t>
+          <t>3,0; 4,01</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>2,99; 3,95</t>
+          <t>3,03; 3,97</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>2,78; 3,78</t>
+          <t>2,77; 3,72</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>2,92; 4,16</t>
+          <t>2,92; 4,19</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo por su última visita al dentista fue por ortodoncia</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>20553</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>33434</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>19318</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>27511</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>27141</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>32823</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>26876</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>22776</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>47694</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>66257</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>46194</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>50287</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>13372; 31583</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>24042; 46471</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>11694; 30152</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>12954; 49668</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>19008; 37383</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>22783; 44808</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>18544; 37854</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>13126; 41944</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>36133; 60727</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>52228; 83612</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>33727; 59339</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>30794; 74918</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>22755</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>26884</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>18043</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>20206</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>21814</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>31303</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>27304</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>36093</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>44569</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>58187</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>45347</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>56299</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>14767; 34249</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>17426; 39326</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>11282; 27559</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>12055; 34482</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>13483; 33069</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>20572; 45317</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>18519; 40016</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>19549; 51702</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>32474; 59669</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>43058; 76795</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>33582; 59633</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>38384; 76356</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>10415</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>15784</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>18985</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>18437</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>16872</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>21772</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>14468</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>21982</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>27287</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>37556</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>33453</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>40420</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>5700; 17951</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>8839; 24962</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>11529; 29737</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>11414; 29338</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>10104; 26043</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>13763; 31912</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>8801; 24177</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>15237; 31112</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>17872; 39001</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>27579; 50818</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>23025; 45045</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>29189; 53211</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>14807</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>10722</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>9008</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>19471</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>10065</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>11904</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>16163</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>22818</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>24871</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>22626</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>25171</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>42288</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>8185; 24737</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>5030; 20730</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>3941; 16571</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>7401; 31319</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>4874; 17447</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>5528; 21045</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>9535; 27522</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>16217; 32445</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>16200; 35554</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>12971; 36280</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>16117; 36688</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>24416; 57921</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>3763</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>4277</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>5871</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>7240</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>6367</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>5072</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>7517</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>14573</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>10129</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>9349</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>13387</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>21813</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>898; 8981</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1067; 14634</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2150; 13680</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>3434; 13691</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2968; 14617</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1997; 11170</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>3278; 16288</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>9499; 21862</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>4886; 17613</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>4202; 18675</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>7912; 23189</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>15520; 30368</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>9380</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1954</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>3746</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>8971</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>8244</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>5595</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>6774</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>10127</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>17623</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>7549</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>10520</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>19098</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>4729; 16448</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6557</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>1018; 9120</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>4802; 16318</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>3664; 15060</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>1888; 12251</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>2792; 15001</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>2490; 17585</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>10992; 26242</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>2839; 16073</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>4849; 18805</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>9049; 29455</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>2650</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>4339</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>795</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>5683</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>4589</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>4471</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>3973</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>9991</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>7239</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>8809</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>4768</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>15674</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>804; 7263</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>1056; 10346</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0; 3927</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>2145; 10959</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>1203; 10500</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>1153; 10667</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>1273; 11672</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>6112; 15571</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>3053; 15002</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>3538; 16497</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>1333; 12530</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>10004; 23531</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>84321</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>97394</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>75765</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>107520</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>95091</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>112940</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>103076</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>138358</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>179412</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>210334</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>178841</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>245878</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>66285; 103953</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>78057; 117722</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>59575; 96885</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>80315; 140899</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>77527; 117081</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>92956; 137195</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>84044; 123999</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>112051; 168116</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>156069; 208510</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>183513; 240628</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>153420; 205803</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>202167; 290346</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>